--- a/BackTest/2019-10-27 BackTest DVP.xlsx
+++ b/BackTest/2019-10-27 BackTest DVP.xlsx
@@ -6506,14 +6506,20 @@
         <v>9.973333333333349</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9.98</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +6547,20 @@
         <v>9.966666666666681</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6576,14 +6588,20 @@
         <v>10.10666666666668</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6611,14 +6629,20 @@
         <v>10.12333333333335</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10.4</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6677,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6716,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6755,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6794,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +6833,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +6872,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +6911,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +6950,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +6989,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7028,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7067,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7106,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7145,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7184,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7223,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7262,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7301,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7340,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7379,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7418,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7457,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7496,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7535,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7574,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7613,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7652,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7691,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7730,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7769,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +7808,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +7847,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +7886,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +7925,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +7964,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8003,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8042,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8081,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8120,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8159,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8198,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8237,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8276,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8315,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8354,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8393,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8432,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8471,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8510,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +8549,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +8588,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8627,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8666,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8705,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8744,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +8783,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +8822,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +8861,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +8900,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +8939,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +8978,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9017,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9056,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9095,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9134,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9173,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9212,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9251,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9290,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9329,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9368,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9407,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9446,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9485,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9524,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9563,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +9602,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9641,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9680,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9719,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9758,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9797,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +9836,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +9875,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +9914,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +9953,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9992,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10031,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10070,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10109,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10148,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10187,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10226,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10265,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10304,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10343,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10382,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10421,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10460,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10499,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +10538,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +10577,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10616,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10655,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +10694,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10733,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +10772,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +10811,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +10850,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +10889,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10928,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +10967,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +11006,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11045,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11084,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10636,14 +11116,20 @@
         <v>9.773333333333325</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9.859999999999999</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +11157,20 @@
         <v>9.826666666666659</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>9.74</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +11198,20 @@
         <v>9.86666666666666</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10741,14 +11239,20 @@
         <v>9.869999999999992</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>9.98</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10776,14 +11280,20 @@
         <v>9.853333333333325</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>9.75</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10811,14 +11321,20 @@
         <v>9.749999999999991</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>9.83</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11369,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +11408,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10916,18 +11440,18 @@
         <v>9.619999999999992</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K301" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10955,20 +11479,16 @@
         <v>9.643333333333326</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K302" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M302" t="n">
@@ -10998,20 +11518,16 @@
         <v>9.656666666666659</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K303" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M303" t="n">
@@ -11041,20 +11557,16 @@
         <v>9.676666666666661</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="K304" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M304" t="n">
@@ -11084,17 +11596,13 @@
         <v>9.683333333333326</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K305" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,17 +11635,13 @@
         <v>9.756666666666661</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K306" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,17 +11674,13 @@
         <v>9.826666666666659</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="K307" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11213,17 +11713,13 @@
         <v>9.853333333333326</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="K308" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11256,17 +11752,13 @@
         <v>9.859999999999994</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="K309" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11299,17 +11791,13 @@
         <v>9.86333333333333</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="K310" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11342,17 +11830,13 @@
         <v>9.879999999999997</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="K311" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,9 +11875,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11432,9 +11914,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +11953,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,17 +11986,13 @@
         <v>9.669999999999996</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="K315" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,17 +12025,13 @@
         <v>9.649999999999997</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K316" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11594,17 +12064,13 @@
         <v>9.579999999999997</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K317" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11637,17 +12103,13 @@
         <v>9.53333333333333</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K318" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11680,17 +12142,13 @@
         <v>9.569999999999995</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="K319" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11723,17 +12181,13 @@
         <v>9.606666666666662</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K320" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11766,17 +12220,13 @@
         <v>9.736666666666663</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K321" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11809,17 +12259,13 @@
         <v>9.773333333333328</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="K322" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11852,17 +12298,13 @@
         <v>9.809999999999995</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="K323" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11895,17 +12337,13 @@
         <v>9.709999999999996</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="K324" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11938,17 +12376,13 @@
         <v>9.633333333333331</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K325" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11981,17 +12415,13 @@
         <v>9.58333333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K326" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12024,17 +12454,13 @@
         <v>9.659999999999998</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="K327" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12067,17 +12493,13 @@
         <v>9.713333333333331</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K328" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12110,17 +12532,13 @@
         <v>9.703333333333331</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K329" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,17 +12571,13 @@
         <v>9.699999999999998</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K330" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12196,17 +12610,13 @@
         <v>9.729999999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="K331" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12239,17 +12649,13 @@
         <v>9.789999999999999</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="K332" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12282,17 +12688,13 @@
         <v>9.77</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K333" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12325,17 +12727,13 @@
         <v>9.736666666666665</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="K334" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12368,17 +12766,13 @@
         <v>9.733333333333333</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K335" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12411,17 +12805,13 @@
         <v>9.759999999999998</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="K336" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12454,17 +12844,13 @@
         <v>9.796666666666665</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K337" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12497,17 +12883,13 @@
         <v>9.806666666666665</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="K338" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12540,17 +12922,13 @@
         <v>9.776666666666664</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K339" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,17 +12961,13 @@
         <v>9.746666666666663</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K340" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,17 +13000,13 @@
         <v>9.719999999999994</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K341" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12669,17 +13039,13 @@
         <v>9.726666666666661</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K342" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12712,17 +13078,13 @@
         <v>9.726666666666661</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K343" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,17 +13117,13 @@
         <v>9.726666666666661</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K344" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12798,17 +13156,13 @@
         <v>9.733333333333327</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K345" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12841,17 +13195,13 @@
         <v>9.729999999999993</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K346" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12884,17 +13234,13 @@
         <v>9.733333333333325</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K347" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12927,17 +13273,13 @@
         <v>9.739999999999993</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="K348" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12970,17 +13312,13 @@
         <v>9.769999999999994</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K349" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13013,17 +13351,13 @@
         <v>9.816666666666661</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K350" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13056,17 +13390,13 @@
         <v>9.79666666666666</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K351" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13099,17 +13429,13 @@
         <v>9.793333333333328</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="K352" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13142,17 +13468,13 @@
         <v>9.733333333333327</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K353" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13185,17 +13507,13 @@
         <v>9.766666666666662</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K354" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,17 +13546,13 @@
         <v>9.696666666666662</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K355" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,17 +13585,13 @@
         <v>9.716666666666663</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="K356" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13314,17 +13624,13 @@
         <v>9.706666666666662</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K357" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,17 +13663,13 @@
         <v>9.793333333333328</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K358" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13400,17 +13702,13 @@
         <v>9.763333333333328</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K359" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13443,17 +13741,13 @@
         <v>9.77333333333333</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K360" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13486,17 +13780,13 @@
         <v>9.756666666666662</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="K361" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13529,17 +13819,13 @@
         <v>9.763333333333328</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K362" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,17 +13858,13 @@
         <v>9.676666666666661</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="K363" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13615,17 +13897,13 @@
         <v>9.589999999999993</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K364" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13658,17 +13936,13 @@
         <v>9.543333333333328</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="K365" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13701,17 +13975,13 @@
         <v>9.603333333333326</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K366" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,17 +14014,13 @@
         <v>9.623333333333328</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K367" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13787,17 +14053,13 @@
         <v>9.673333333333327</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="K368" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13830,17 +14092,13 @@
         <v>9.649999999999993</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="K369" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13873,17 +14131,13 @@
         <v>9.636666666666661</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="K370" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13916,17 +14170,13 @@
         <v>9.639999999999995</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K371" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13959,17 +14209,13 @@
         <v>9.659999999999995</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="K372" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14002,17 +14248,13 @@
         <v>9.673333333333327</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K373" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14045,17 +14287,13 @@
         <v>9.679999999999994</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="K374" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14088,17 +14326,13 @@
         <v>9.666666666666663</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K375" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,17 +14365,13 @@
         <v>9.656666666666661</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K376" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14174,17 +14404,13 @@
         <v>9.653333333333327</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K377" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14217,17 +14443,13 @@
         <v>9.656666666666661</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K378" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14260,17 +14482,13 @@
         <v>9.693333333333328</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K379" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14303,17 +14521,13 @@
         <v>9.679999999999994</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K380" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,17 +14560,13 @@
         <v>9.746666666666663</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="K381" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,17 +14599,13 @@
         <v>9.886666666666663</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K382" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14432,17 +14638,13 @@
         <v>9.983333333333329</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="K383" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14475,17 +14677,13 @@
         <v>10.02333333333333</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="K384" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14518,17 +14716,13 @@
         <v>9.976666666666661</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="K385" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,17 +14755,13 @@
         <v>9.979999999999995</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="K386" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14604,17 +14794,13 @@
         <v>9.976666666666661</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K387" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14647,17 +14833,13 @@
         <v>9.986666666666663</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>10</v>
-      </c>
-      <c r="K388" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14690,17 +14872,13 @@
         <v>9.993333333333329</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>10</v>
-      </c>
-      <c r="K389" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14739,9 +14917,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14780,9 +14956,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14821,9 +14995,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14862,9 +15034,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,9 +15073,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14944,9 +15112,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14985,9 +15151,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15026,9 +15190,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15067,9 +15229,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15108,9 +15268,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15149,9 +15307,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15190,9 +15346,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15231,9 +15385,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15272,9 +15424,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,9 +15463,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15354,9 +15502,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,9 +15541,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15436,9 +15580,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,9 +15619,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15518,9 +15658,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15559,9 +15697,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15600,9 +15736,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15641,9 +15775,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15682,9 +15814,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15723,9 +15853,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15764,9 +15892,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15805,9 +15931,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,9 +15970,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15887,9 +16009,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15928,9 +16048,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15969,9 +16087,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16010,9 +16126,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16051,9 +16165,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16092,9 +16204,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16133,9 +16243,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16174,9 +16282,7 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16215,9 +16321,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16256,9 +16360,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16297,9 +16399,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16338,9 +16438,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16379,9 +16477,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16420,9 +16516,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16461,9 +16555,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16502,9 +16594,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,9 +16633,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16584,9 +16672,7 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16625,9 +16711,7 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16666,9 +16750,7 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16707,9 +16789,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16748,9 +16828,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16789,9 +16867,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16830,9 +16906,7 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16871,9 +16945,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16912,9 +16984,7 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16953,9 +17023,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16994,9 +17062,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17035,9 +17101,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17076,9 +17140,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17117,9 +17179,7 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17158,9 +17218,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17199,9 +17257,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17240,9 +17296,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17281,9 +17335,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17322,9 +17374,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17363,9 +17413,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17404,9 +17452,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17445,9 +17491,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17486,9 +17530,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17527,9 +17569,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17568,9 +17608,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17609,9 +17647,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17650,9 +17686,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17691,9 +17725,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17732,9 +17764,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17773,9 +17803,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17814,9 +17842,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17855,9 +17881,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17896,9 +17920,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,9 +17959,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17978,9 +17998,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18019,9 +18037,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18060,9 +18076,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18101,9 +18115,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,9 +18154,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18183,9 +18193,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18224,9 +18232,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18265,9 +18271,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18306,9 +18310,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18347,9 +18349,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18388,9 +18388,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18429,9 +18427,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18470,9 +18466,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18511,9 +18505,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18552,9 +18544,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18593,9 +18583,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18634,9 +18622,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,9 +18661,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18716,9 +18700,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18757,9 +18739,7 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18798,9 +18778,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18839,9 +18817,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18880,9 +18856,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18921,9 +18895,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18962,9 +18934,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19003,9 +18973,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19044,9 +19012,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19085,9 +19051,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19126,9 +19090,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19167,9 +19129,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19208,9 +19168,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19249,9 +19207,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19290,9 +19246,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19331,9 +19285,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19372,9 +19324,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19413,9 +19363,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19454,9 +19402,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19495,9 +19441,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19536,9 +19480,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19577,9 +19519,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19618,9 +19558,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19659,9 +19597,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19700,9 +19636,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,9 +19675,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19782,9 +19714,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19823,9 +19753,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19864,9 +19792,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19905,9 +19831,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19946,9 +19870,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19987,9 +19909,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20028,9 +19948,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20069,9 +19987,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20110,9 +20026,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20151,9 +20065,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20192,9 +20104,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20233,9 +20143,7 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20274,9 +20182,7 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20315,9 +20221,7 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20356,9 +20260,7 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20397,9 +20299,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20438,9 +20338,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20479,9 +20377,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20520,9 +20416,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20561,9 +20455,7 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20602,9 +20494,7 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20643,9 +20533,7 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20684,9 +20572,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20725,9 +20611,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20766,9 +20650,7 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20807,9 +20689,7 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20848,9 +20728,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20889,9 +20767,7 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20930,9 +20806,7 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20971,9 +20845,7 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21012,9 +20884,7 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21053,9 +20923,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21094,9 +20962,7 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21135,9 +21001,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21176,9 +21040,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21217,9 +21079,7 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21258,9 +21118,7 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21299,9 +21157,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,9 +21196,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21381,9 +21235,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21422,9 +21274,7 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21463,9 +21313,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21504,9 +21352,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21545,9 +21391,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21586,9 +21430,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21627,9 +21469,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21668,9 +21508,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,9 +21547,7 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,9 +21586,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21791,9 +21625,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21832,9 +21664,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21873,9 +21703,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21914,9 +21742,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21955,9 +21781,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21996,9 +21820,7 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22037,9 +21859,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22078,9 +21898,7 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22119,9 +21937,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22160,9 +21976,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22201,9 +22015,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22242,9 +22054,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22283,9 +22093,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22321,19 +22129,17 @@
         <v>0</v>
       </c>
       <c r="I575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>9.6</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>1.172083333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -22362,11 +22168,15 @@
         <v>0</v>
       </c>
       <c r="I576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22397,11 +22207,15 @@
         <v>0</v>
       </c>
       <c r="I577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22432,11 +22246,15 @@
         <v>0</v>
       </c>
       <c r="I578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -22467,11 +22285,15 @@
         <v>0</v>
       </c>
       <c r="I579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -22506,7 +22328,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -22541,7 +22367,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22576,7 +22406,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22611,7 +22445,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22646,7 +22484,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22681,7 +22523,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22716,7 +22562,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22751,7 +22601,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22786,7 +22640,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22821,7 +22679,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22856,7 +22718,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22891,7 +22757,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22926,7 +22796,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +22835,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22996,7 +22874,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -23031,7 +22913,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -23066,7 +22952,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -23101,7 +22991,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -23136,7 +23030,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -23171,7 +23069,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -23206,7 +23108,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -23241,7 +23147,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -23276,7 +23186,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -23311,7 +23225,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -23346,7 +23264,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -23381,7 +23303,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -23416,7 +23342,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -23451,7 +23381,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23486,7 +23420,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23521,7 +23459,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23556,7 +23498,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23591,7 +23537,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23626,7 +23576,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23661,7 +23615,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23696,7 +23654,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23731,7 +23693,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23766,7 +23732,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23801,7 +23771,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23836,7 +23810,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23871,7 +23849,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23906,7 +23888,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23941,7 +23927,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23976,7 +23966,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -24011,7 +24005,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -24046,7 +24044,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -24081,7 +24083,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24122,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -24151,7 +24161,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -24186,7 +24200,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -24221,7 +24239,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -24256,7 +24278,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -24291,7 +24317,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -24326,7 +24356,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24361,7 +24395,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24396,7 +24434,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24431,7 +24473,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24466,7 +24512,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24501,7 +24551,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24536,7 +24590,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24571,7 +24629,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24606,7 +24668,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24641,10 +24707,12 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
-      <c r="M641" t="n">
-        <v>1</v>
-      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -24672,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest DVP.xlsx
+++ b/BackTest/2019-10-27 BackTest DVP.xlsx
@@ -979,7 +979,7 @@
         <v>7913480.168225524</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>8696858.452607006</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>8187979.137511592</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>8187979.137511592</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>7091976.927111592</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>7764196.797911592</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>8987153.686011592</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>7181865.209937517</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>7183270.034037516</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>7185842.034037516</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>7185842.034037516</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>7403049.888937516</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>7197218.157837516</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>7197218.157837516</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>7261694.506868708</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6989687.350468708</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5379769.062468708</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5684693.226768709</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6030186.412068709</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6030186.412068709</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5753601.388868709</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5321373.31786871</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5390614.28856871</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>5135788.24616871</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>5184849.29566871</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>4948259.70846871</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>4948259.70846871</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3460234.60416871</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3730266.829368711</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1091175.374935376</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -12793,14 +12793,10 @@
         <v>136025.1299353756</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="J376" t="n">
-        <v>9.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
@@ -12830,1119 +12826,983 @@
         <v>-9874.112764624413</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="J377" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K377" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="C378" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D378" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="E378" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F378" t="n">
+        <v>30020</v>
+      </c>
+      <c r="G378" t="n">
+        <v>20145.88723537559</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="C379" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D379" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="E379" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F379" t="n">
+        <v>80289.2561</v>
+      </c>
+      <c r="G379" t="n">
+        <v>20145.88723537559</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="C380" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D380" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E380" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="F380" t="n">
+        <v>40204.4301</v>
+      </c>
+      <c r="G380" t="n">
+        <v>60350.31733537558</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C381" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D381" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E381" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F381" t="n">
+        <v>26243.0612</v>
+      </c>
+      <c r="G381" t="n">
+        <v>34107.25613537559</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C382" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D382" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E382" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F382" t="n">
+        <v>13148.4167</v>
+      </c>
+      <c r="G382" t="n">
+        <v>34107.25613537559</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="C383" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D383" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E383" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F383" t="n">
+        <v>140641.6895</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-106534.4333646244</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C384" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D384" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="E384" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F384" t="n">
+        <v>59928.9449</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-46605.48846462442</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C385" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="D385" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E385" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="F385" t="n">
+        <v>20</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-46585.48846462442</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C386" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D386" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E386" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F386" t="n">
+        <v>20</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-46565.48846462442</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C387" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D387" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E387" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F387" t="n">
+        <v>71807.9526</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-118373.4410646244</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C388" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D388" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E388" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F388" t="n">
+        <v>110</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-118483.4410646244</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="C389" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D389" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="E389" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="F389" t="n">
+        <v>6245.1194</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-112238.3216646244</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C390" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D390" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E390" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F390" t="n">
+        <v>14826.7074</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-97411.61426462443</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C391" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D391" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E391" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F391" t="n">
+        <v>20</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-97431.61426462443</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C392" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D392" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E392" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F392" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-97451.56426462442</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="C393" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D393" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="E393" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F393" t="n">
+        <v>34493.9414</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-97451.56426462442</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C394" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D394" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="E394" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F394" t="n">
+        <v>200</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-97251.56426462442</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C395" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D395" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E395" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F395" t="n">
+        <v>14669.6629</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-82581.90136462443</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C396" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="D396" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E396" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F396" t="n">
+        <v>254342.8851</v>
+      </c>
+      <c r="G396" t="n">
+        <v>171760.9837353756</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C397" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D397" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E397" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F397" t="n">
+        <v>21133.5642</v>
+      </c>
+      <c r="G397" t="n">
+        <v>150627.4195353756</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C398" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D398" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E398" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F398" t="n">
+        <v>17732.073</v>
+      </c>
+      <c r="G398" t="n">
+        <v>132895.3465353756</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C399" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D399" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E399" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1924.3221</v>
+      </c>
+      <c r="G399" t="n">
+        <v>134819.6686353756</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J399" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C400" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D400" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E400" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1214.7323</v>
+      </c>
+      <c r="G400" t="n">
+        <v>134819.6686353756</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="J400" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C401" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D401" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E401" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F401" t="n">
+        <v>19547.1368</v>
+      </c>
+      <c r="G401" t="n">
+        <v>115272.5318353756</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="J401" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C402" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D402" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E402" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F402" t="n">
+        <v>10176.4645</v>
+      </c>
+      <c r="G402" t="n">
+        <v>125448.9963353756</v>
+      </c>
+      <c r="H402" t="n">
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J402" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C403" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D403" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E403" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2972.3974</v>
+      </c>
+      <c r="G403" t="n">
+        <v>125448.9963353756</v>
+      </c>
+      <c r="H403" t="n">
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="J403" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C404" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D404" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="E404" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F404" t="n">
+        <v>10</v>
+      </c>
+      <c r="G404" t="n">
+        <v>125458.9963353756</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="J404" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C405" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D405" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="E405" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F405" t="n">
+        <v>5651.8596</v>
+      </c>
+      <c r="G405" t="n">
+        <v>119807.1367353756</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="J405" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K405" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="C378" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="D378" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E378" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F378" t="n">
-        <v>30020</v>
-      </c>
-      <c r="G378" t="n">
-        <v>20145.88723537559</v>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="J378" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="C379" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="D379" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="E379" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="F379" t="n">
-        <v>80289.2561</v>
-      </c>
-      <c r="G379" t="n">
-        <v>20145.88723537559</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="J379" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="C380" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D380" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="E380" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="F380" t="n">
-        <v>40204.4301</v>
-      </c>
-      <c r="G380" t="n">
-        <v>60350.31733537558</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="J380" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="C381" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D381" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E381" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F381" t="n">
-        <v>26243.0612</v>
-      </c>
-      <c r="G381" t="n">
-        <v>34107.25613537559</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="C382" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D382" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E382" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F382" t="n">
-        <v>13148.4167</v>
-      </c>
-      <c r="G382" t="n">
-        <v>34107.25613537559</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="C383" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D383" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E383" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F383" t="n">
-        <v>140641.6895</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-106534.4333646244</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C384" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="D384" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E384" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="F384" t="n">
-        <v>59928.9449</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-46605.48846462442</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="C385" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D385" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E385" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F385" t="n">
-        <v>20</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-46585.48846462442</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="C386" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D386" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="E386" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="F386" t="n">
-        <v>20</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-46565.48846462442</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C387" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D387" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="E387" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F387" t="n">
-        <v>71807.9526</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-118373.4410646244</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="C388" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D388" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="E388" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="F388" t="n">
-        <v>110</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-118483.4410646244</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="C389" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D389" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="E389" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="F389" t="n">
-        <v>6245.1194</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-112238.3216646244</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="C390" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="D390" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="E390" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="F390" t="n">
-        <v>14826.7074</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-97411.61426462443</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="C391" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D391" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E391" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F391" t="n">
-        <v>20</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-97431.61426462443</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C392" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D392" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="E392" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F392" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-97451.56426462442</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="C393" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D393" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="E393" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F393" t="n">
-        <v>34493.9414</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-97451.56426462442</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C394" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D394" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="E394" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F394" t="n">
-        <v>200</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-97251.56426462442</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="C395" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D395" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="E395" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="F395" t="n">
-        <v>14669.6629</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-82581.90136462443</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C396" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="D396" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="E396" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F396" t="n">
-        <v>254342.8851</v>
-      </c>
-      <c r="G396" t="n">
-        <v>171760.9837353756</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="C397" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="D397" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="E397" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="F397" t="n">
-        <v>21133.5642</v>
-      </c>
-      <c r="G397" t="n">
-        <v>150627.4195353756</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C398" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D398" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="E398" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F398" t="n">
-        <v>17732.073</v>
-      </c>
-      <c r="G398" t="n">
-        <v>132895.3465353756</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C399" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D399" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E399" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F399" t="n">
-        <v>1924.3221</v>
-      </c>
-      <c r="G399" t="n">
-        <v>134819.6686353756</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C400" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D400" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E400" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F400" t="n">
-        <v>1214.7323</v>
-      </c>
-      <c r="G400" t="n">
-        <v>134819.6686353756</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C401" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D401" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E401" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F401" t="n">
-        <v>19547.1368</v>
-      </c>
-      <c r="G401" t="n">
-        <v>115272.5318353756</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C402" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D402" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E402" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F402" t="n">
-        <v>10176.4645</v>
-      </c>
-      <c r="G402" t="n">
-        <v>125448.9963353756</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C403" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D403" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="E403" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F403" t="n">
-        <v>2972.3974</v>
-      </c>
-      <c r="G403" t="n">
-        <v>125448.9963353756</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C404" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="D404" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="E404" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F404" t="n">
-        <v>10</v>
-      </c>
-      <c r="G404" t="n">
-        <v>125458.9963353756</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C405" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D405" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="E405" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F405" t="n">
-        <v>5651.8596</v>
-      </c>
-      <c r="G405" t="n">
-        <v>119807.1367353756</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="J405" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13977,7 +13837,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="J406" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14018,7 +13878,7 @@
         <v>9.74</v>
       </c>
       <c r="J407" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14059,7 +13919,7 @@
         <v>9.76</v>
       </c>
       <c r="J408" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14094,11 +13954,13 @@
         <v>166142.4001353756</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>9.81</v>
+      </c>
       <c r="J409" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14133,11 +13995,13 @@
         <v>120095.5424353756</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>9.880000000000001</v>
+      </c>
       <c r="J410" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14178,7 +14042,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="J411" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14213,11 +14077,13 @@
         <v>83037.42743537558</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J412" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14252,11 +14118,13 @@
         <v>83137.42743537558</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J413" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14297,7 +14165,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J414" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14338,7 +14206,7 @@
         <v>9.59</v>
       </c>
       <c r="J415" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14379,7 +14247,7 @@
         <v>9.76</v>
       </c>
       <c r="J416" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14414,11 +14282,13 @@
         <v>-40533.96206462441</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>9.77</v>
+      </c>
       <c r="J417" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14453,11 +14323,13 @@
         <v>-63419.05036462442</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>9.85</v>
+      </c>
       <c r="J418" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14498,7 +14370,7 @@
         <v>9.67</v>
       </c>
       <c r="J419" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14539,7 +14411,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J420" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14574,11 +14446,13 @@
         <v>-172893.2052646244</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J421" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14619,7 +14493,7 @@
         <v>9.69</v>
       </c>
       <c r="J422" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14660,7 +14534,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="J423" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14701,7 +14575,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="J424" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14742,7 +14616,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="J425" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14783,7 +14657,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="J426" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14824,7 +14698,7 @@
         <v>9.6</v>
       </c>
       <c r="J427" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14865,7 +14739,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="J428" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14906,7 +14780,7 @@
         <v>9.65</v>
       </c>
       <c r="J429" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14947,7 +14821,7 @@
         <v>9.56</v>
       </c>
       <c r="J430" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14988,7 +14862,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="J431" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15029,7 +14903,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="J432" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15070,7 +14944,7 @@
         <v>9.6</v>
       </c>
       <c r="J433" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15111,7 +14985,7 @@
         <v>9.73</v>
       </c>
       <c r="J434" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15152,7 +15026,7 @@
         <v>9.67</v>
       </c>
       <c r="J435" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15193,7 +15067,7 @@
         <v>9.57</v>
       </c>
       <c r="J436" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15234,7 +15108,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="J437" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15275,7 +15149,7 @@
         <v>9.68</v>
       </c>
       <c r="J438" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15316,7 +15190,7 @@
         <v>9.68</v>
       </c>
       <c r="J439" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15357,7 +15231,7 @@
         <v>9.68</v>
       </c>
       <c r="J440" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15398,7 +15272,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="J441" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15433,11 +15307,13 @@
         <v>494735.8396353757</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>10.1</v>
+      </c>
       <c r="J442" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15472,11 +15348,13 @@
         <v>822805.1411353757</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>9.970000000000001</v>
+      </c>
       <c r="J443" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15515,7 +15393,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15554,7 +15432,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15593,7 +15471,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15632,7 +15510,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15671,7 +15549,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15710,7 +15588,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15749,7 +15627,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15788,7 +15666,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15827,7 +15705,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15866,7 +15744,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15905,7 +15783,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15944,7 +15822,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15983,7 +15861,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16022,7 +15900,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16061,7 +15939,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16100,7 +15978,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16139,7 +16017,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16178,7 +16056,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16217,7 +16095,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16256,7 +16134,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16295,7 +16173,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16334,7 +16212,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16373,7 +16251,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16412,7 +16290,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16451,7 +16329,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16490,7 +16368,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16529,7 +16407,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16568,7 +16446,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16607,7 +16485,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16646,7 +16524,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16685,7 +16563,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16724,7 +16602,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16763,7 +16641,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16802,7 +16680,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16841,7 +16719,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16880,7 +16758,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16919,7 +16797,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16958,7 +16836,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16997,7 +16875,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17036,7 +16914,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17075,7 +16953,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17114,7 +16992,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17153,7 +17031,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17192,7 +17070,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17231,7 +17109,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17270,7 +17148,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17309,7 +17187,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17348,7 +17226,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17387,7 +17265,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17426,7 +17304,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17465,7 +17343,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17504,7 +17382,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17543,7 +17421,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17582,7 +17460,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17621,7 +17499,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17660,7 +17538,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17699,7 +17577,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17738,7 +17616,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17777,7 +17655,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17816,7 +17694,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17855,7 +17733,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17894,7 +17772,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17933,7 +17811,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17972,7 +17850,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18011,7 +17889,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18050,7 +17928,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18089,7 +17967,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18128,7 +18006,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18167,7 +18045,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18206,7 +18084,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18245,7 +18123,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18284,7 +18162,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18323,7 +18201,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18362,7 +18240,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18401,7 +18279,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18440,7 +18318,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18479,7 +18357,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18518,7 +18396,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18557,7 +18435,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18596,7 +18474,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18635,7 +18513,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18674,7 +18552,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18713,7 +18591,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18752,7 +18630,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18791,7 +18669,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18830,7 +18708,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18869,7 +18747,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18908,7 +18786,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18947,7 +18825,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18986,7 +18864,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19025,7 +18903,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19064,7 +18942,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19103,7 +18981,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19142,7 +19020,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19181,7 +19059,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19220,7 +19098,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19259,7 +19137,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19298,7 +19176,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19337,7 +19215,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19376,7 +19254,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19415,7 +19293,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19454,7 +19332,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19493,7 +19371,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19532,7 +19410,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19571,7 +19449,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19610,7 +19488,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19649,7 +19527,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19688,7 +19566,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19727,7 +19605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19766,7 +19644,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19805,7 +19683,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19844,7 +19722,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19883,7 +19761,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19922,7 +19800,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19961,7 +19839,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20000,7 +19878,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20039,7 +19917,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20078,7 +19956,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20117,7 +19995,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20156,7 +20034,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -20195,7 +20073,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -20234,7 +20112,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -20273,7 +20151,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -20312,7 +20190,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20351,7 +20229,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20390,7 +20268,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20429,7 +20307,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20468,7 +20346,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20507,7 +20385,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20546,7 +20424,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20585,7 +20463,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20624,7 +20502,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20663,7 +20541,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20702,7 +20580,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20741,7 +20619,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20780,7 +20658,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20819,7 +20697,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20858,7 +20736,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20897,7 +20775,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20936,7 +20814,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20975,7 +20853,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21014,7 +20892,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21053,7 +20931,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21092,7 +20970,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -21131,7 +21009,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -21170,7 +21048,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -21209,7 +21087,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -21248,7 +21126,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -21287,7 +21165,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -21326,7 +21204,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21365,7 +21243,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21404,7 +21282,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21443,7 +21321,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -21482,7 +21360,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -21521,7 +21399,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -21560,7 +21438,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -21599,7 +21477,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -21638,7 +21516,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -21677,7 +21555,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21716,7 +21594,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21755,7 +21633,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21794,7 +21672,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21833,7 +21711,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21872,7 +21750,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21911,7 +21789,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21950,7 +21828,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21989,7 +21867,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22028,7 +21906,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22067,7 +21945,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -22106,7 +21984,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -22145,7 +22023,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -22184,7 +22062,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -22223,7 +22101,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -22262,7 +22140,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -22301,7 +22179,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -22340,7 +22218,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -22379,7 +22257,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -22418,7 +22296,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -22457,7 +22335,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -22496,7 +22374,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -22535,7 +22413,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -22574,7 +22452,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -22613,7 +22491,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -22652,7 +22530,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22691,7 +22569,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22730,7 +22608,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22769,7 +22647,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22808,7 +22686,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22843,2234 +22721,2636 @@
         <v>5978937.16713136</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>9.57</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C633" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D633" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E633" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F633" t="n">
+        <v>361212.8841</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5978937.16713136</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C634" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D634" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E634" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F634" t="n">
+        <v>602284.2872504424</v>
+      </c>
+      <c r="G634" t="n">
+        <v>6581221.454381802</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C635" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D635" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E635" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1482849.6886</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5098371.765781802</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C636" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D636" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E636" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F636" t="n">
+        <v>435717.3634</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5098371.765781802</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C637" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D637" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E637" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F637" t="n">
+        <v>684465.608</v>
+      </c>
+      <c r="G637" t="n">
+        <v>4413906.157781802</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C638" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D638" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E638" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1235977.9798</v>
+      </c>
+      <c r="G638" t="n">
+        <v>3177928.177981802</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C639" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D639" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E639" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F639" t="n">
+        <v>86062.80590000001</v>
+      </c>
+      <c r="G639" t="n">
+        <v>3177928.177981802</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C640" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D640" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E640" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F640" t="n">
+        <v>727402.9061</v>
+      </c>
+      <c r="G640" t="n">
+        <v>3905331.084081803</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C641" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D641" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E641" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F641" t="n">
+        <v>332362.8523</v>
+      </c>
+      <c r="G641" t="n">
+        <v>3572968.231781803</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C642" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D642" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E642" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F642" t="n">
+        <v>443609.5575</v>
+      </c>
+      <c r="G642" t="n">
+        <v>4016577.789281803</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C643" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D643" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E643" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F643" t="n">
+        <v>338958.8395</v>
+      </c>
+      <c r="G643" t="n">
+        <v>4016577.789281803</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C644" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D644" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E644" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F644" t="n">
+        <v>156581.5172</v>
+      </c>
+      <c r="G644" t="n">
+        <v>3859996.272081803</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C645" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D645" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E645" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F645" t="n">
+        <v>94976.1385</v>
+      </c>
+      <c r="G645" t="n">
+        <v>3954972.410581802</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C646" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D646" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E646" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F646" t="n">
+        <v>25228.2791</v>
+      </c>
+      <c r="G646" t="n">
+        <v>3980200.689681802</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C647" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D647" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E647" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F647" t="n">
+        <v>332814.3888</v>
+      </c>
+      <c r="G647" t="n">
+        <v>3647386.300881803</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C648" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D648" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E648" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F648" t="n">
+        <v>10959.2964</v>
+      </c>
+      <c r="G648" t="n">
+        <v>3647386.300881803</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C649" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D649" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E649" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F649" t="n">
+        <v>21897.4074</v>
+      </c>
+      <c r="G649" t="n">
+        <v>3647386.300881803</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C650" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D650" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E650" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F650" t="n">
+        <v>181954.8743</v>
+      </c>
+      <c r="G650" t="n">
+        <v>3647386.300881803</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C651" t="n">
+        <v>11</v>
+      </c>
+      <c r="D651" t="n">
+        <v>11</v>
+      </c>
+      <c r="E651" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F651" t="n">
+        <v>525246.437199091</v>
+      </c>
+      <c r="G651" t="n">
+        <v>4172632.738080894</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C652" t="n">
+        <v>11</v>
+      </c>
+      <c r="D652" t="n">
+        <v>11</v>
+      </c>
+      <c r="E652" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F652" t="n">
+        <v>311323.5104</v>
+      </c>
+      <c r="G652" t="n">
+        <v>4172632.738080894</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>11</v>
+      </c>
+      <c r="C653" t="n">
+        <v>11</v>
+      </c>
+      <c r="D653" t="n">
+        <v>11</v>
+      </c>
+      <c r="E653" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F653" t="n">
+        <v>243870.0575</v>
+      </c>
+      <c r="G653" t="n">
+        <v>4172632.738080894</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>11</v>
+      </c>
+      <c r="C654" t="n">
+        <v>11</v>
+      </c>
+      <c r="D654" t="n">
+        <v>11</v>
+      </c>
+      <c r="E654" t="n">
+        <v>11</v>
+      </c>
+      <c r="F654" t="n">
+        <v>84</v>
+      </c>
+      <c r="G654" t="n">
+        <v>4172632.738080894</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F655" t="n">
+        <v>32754.5871</v>
+      </c>
+      <c r="G655" t="n">
+        <v>4139878.150980894</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C656" t="n">
+        <v>11</v>
+      </c>
+      <c r="D656" t="n">
+        <v>11</v>
+      </c>
+      <c r="E656" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F656" t="n">
+        <v>66567.54760000001</v>
+      </c>
+      <c r="G656" t="n">
+        <v>4206445.698580894</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>11</v>
+      </c>
+      <c r="C657" t="n">
+        <v>11</v>
+      </c>
+      <c r="D657" t="n">
+        <v>11</v>
+      </c>
+      <c r="E657" t="n">
+        <v>11</v>
+      </c>
+      <c r="F657" t="n">
+        <v>29211.1363</v>
+      </c>
+      <c r="G657" t="n">
+        <v>4206445.698580894</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>11</v>
+      </c>
+      <c r="C658" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D658" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E658" t="n">
+        <v>11</v>
+      </c>
+      <c r="F658" t="n">
+        <v>240554.1349009091</v>
+      </c>
+      <c r="G658" t="n">
+        <v>4446999.833481803</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C659" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D659" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E659" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F659" t="n">
+        <v>25946.063</v>
+      </c>
+      <c r="G659" t="n">
+        <v>4446999.833481803</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>11</v>
+      </c>
+      <c r="C660" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D660" t="n">
+        <v>11</v>
+      </c>
+      <c r="E660" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F660" t="n">
+        <v>476153.8847</v>
+      </c>
+      <c r="G660" t="n">
+        <v>3970845.948781803</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F661" t="n">
+        <v>319711.7027</v>
+      </c>
+      <c r="G661" t="n">
+        <v>3651134.246081803</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C662" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D662" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E662" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F662" t="n">
+        <v>11</v>
+      </c>
+      <c r="G662" t="n">
+        <v>3651145.246081803</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F663" t="n">
+        <v>538617.5379</v>
+      </c>
+      <c r="G663" t="n">
+        <v>3112527.708181803</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C664" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D664" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E664" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F664" t="n">
+        <v>3639.4814</v>
+      </c>
+      <c r="G664" t="n">
+        <v>3112527.708181803</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C665" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D665" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E665" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F665" t="n">
+        <v>61142.2318</v>
+      </c>
+      <c r="G665" t="n">
+        <v>3051385.476381803</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C666" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D666" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E666" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F666" t="n">
+        <v>153963.7315</v>
+      </c>
+      <c r="G666" t="n">
+        <v>3051385.476381803</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C667" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D667" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E667" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F667" t="n">
+        <v>69504.74340000001</v>
+      </c>
+      <c r="G667" t="n">
+        <v>3120890.219781803</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C668" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D668" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E668" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F668" t="n">
+        <v>154113.0578</v>
+      </c>
+      <c r="G668" t="n">
+        <v>2966777.161981803</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C669" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D669" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E669" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F669" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G669" t="n">
+        <v>2916777.161981803</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C670" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D670" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E670" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F670" t="n">
+        <v>92772.05130000001</v>
+      </c>
+      <c r="G670" t="n">
+        <v>3009549.213281803</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C671" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D671" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E671" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F671" t="n">
+        <v>273519.5926</v>
+      </c>
+      <c r="G671" t="n">
+        <v>2736029.620681803</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C672" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D672" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E672" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F672" t="n">
+        <v>46580.2292</v>
+      </c>
+      <c r="G672" t="n">
+        <v>2782609.849881803</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C673" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D673" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E673" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F673" t="n">
+        <v>81732.0135</v>
+      </c>
+      <c r="G673" t="n">
+        <v>2700877.836381803</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C674" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D674" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E674" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F674" t="n">
+        <v>109053.1603</v>
+      </c>
+      <c r="G674" t="n">
+        <v>2809930.996681803</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C675" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D675" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E675" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F675" t="n">
+        <v>33104.8237</v>
+      </c>
+      <c r="G675" t="n">
+        <v>2776826.172981803</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C676" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D676" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E676" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F676" t="n">
+        <v>132668.2077</v>
+      </c>
+      <c r="G676" t="n">
+        <v>2776826.172981803</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C677" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D677" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E677" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F677" t="n">
+        <v>83252.82399999999</v>
+      </c>
+      <c r="G677" t="n">
+        <v>2776826.172981803</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C678" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D678" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E678" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F678" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G678" t="n">
+        <v>2776808.372981803</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C679" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D679" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E679" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F679" t="n">
+        <v>436341.9226</v>
+      </c>
+      <c r="G679" t="n">
+        <v>2340466.450381803</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C680" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D680" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E680" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F680" t="n">
+        <v>22802.1246</v>
+      </c>
+      <c r="G680" t="n">
+        <v>2363268.574981803</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C681" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D681" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E681" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F681" t="n">
+        <v>19415.2016</v>
+      </c>
+      <c r="G681" t="n">
+        <v>2382683.776581803</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C682" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D682" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E682" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F682" t="n">
+        <v>41322.6898</v>
+      </c>
+      <c r="G682" t="n">
+        <v>2382683.776581803</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C683" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D683" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E683" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F683" t="n">
+        <v>464411.3207</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1918272.455881803</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C684" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D684" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E684" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F684" t="n">
+        <v>16551.7693</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1934824.225181803</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C685" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D685" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E685" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F685" t="n">
+        <v>22782.4939</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1912041.731281803</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C686" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D686" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E686" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F686" t="n">
+        <v>373526.0329</v>
+      </c>
+      <c r="G686" t="n">
+        <v>2285567.764181803</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C687" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D687" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E687" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F687" t="n">
+        <v>130046.1682</v>
+      </c>
+      <c r="G687" t="n">
+        <v>2285567.764181803</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C688" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D688" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E688" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F688" t="n">
+        <v>369340.729</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1916227.035181803</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C689" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D689" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E689" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F689" t="n">
+        <v>71943.5135</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1988170.548681803</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C690" t="n">
+        <v>11</v>
+      </c>
+      <c r="D690" t="n">
+        <v>11</v>
+      </c>
+      <c r="E690" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F690" t="n">
+        <v>744358.6368</v>
+      </c>
+      <c r="G690" t="n">
+        <v>2732529.185481803</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>11</v>
+      </c>
+      <c r="C691" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D691" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E691" t="n">
+        <v>11</v>
+      </c>
+      <c r="F691" t="n">
+        <v>2018295.4327</v>
+      </c>
+      <c r="G691" t="n">
+        <v>4750824.618181803</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C692" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D692" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E692" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1377158.465038596</v>
+      </c>
+      <c r="G692" t="n">
+        <v>3373666.153143208</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C693" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D693" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E693" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F693" t="n">
+        <v>520493.8872</v>
+      </c>
+      <c r="G693" t="n">
+        <v>3894160.040343207</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C694" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D694" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E694" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2171097.135901379</v>
+      </c>
+      <c r="G694" t="n">
+        <v>6065257.176244587</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C695" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D695" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E695" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F695" t="n">
+        <v>912874.947660024</v>
+      </c>
+      <c r="G695" t="n">
+        <v>6065257.176244587</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C696" t="n">
+        <v>12</v>
+      </c>
+      <c r="D696" t="n">
+        <v>12</v>
+      </c>
+      <c r="E696" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F696" t="n">
+        <v>2120887.0646</v>
+      </c>
+      <c r="G696" t="n">
+        <v>8186144.240844587</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>12</v>
+      </c>
+      <c r="C697" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D697" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E697" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F697" t="n">
+        <v>2378915.0649</v>
+      </c>
+      <c r="G697" t="n">
+        <v>10565059.30574459</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C698" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D698" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E698" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F698" t="n">
+        <v>4775021.005518788</v>
+      </c>
+      <c r="G698" t="n">
+        <v>15340080.31126337</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C699" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D699" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E699" t="n">
+        <v>12</v>
+      </c>
+      <c r="F699" t="n">
+        <v>3915137.408518182</v>
+      </c>
+      <c r="G699" t="n">
+        <v>11424942.90274519</v>
+      </c>
+      <c r="H699" t="n">
+        <v>2</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K699" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L632" t="n">
-        <v>1.165323928944619</v>
-      </c>
-      <c r="M632" t="n">
-        <v>1.191222570532915</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C633" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D633" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E633" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F633" t="n">
-        <v>361212.8841</v>
-      </c>
-      <c r="G633" t="n">
-        <v>5978937.16713136</v>
-      </c>
-      <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C634" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D634" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E634" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F634" t="n">
-        <v>602284.2872504424</v>
-      </c>
-      <c r="G634" t="n">
-        <v>6581221.454381802</v>
-      </c>
-      <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C635" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D635" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E635" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F635" t="n">
-        <v>1482849.6886</v>
-      </c>
-      <c r="G635" t="n">
-        <v>5098371.765781802</v>
-      </c>
-      <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C636" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D636" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E636" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F636" t="n">
-        <v>435717.3634</v>
-      </c>
-      <c r="G636" t="n">
-        <v>5098371.765781802</v>
-      </c>
-      <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C637" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D637" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E637" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F637" t="n">
-        <v>684465.608</v>
-      </c>
-      <c r="G637" t="n">
-        <v>4413906.157781802</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C638" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D638" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E638" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F638" t="n">
-        <v>1235977.9798</v>
-      </c>
-      <c r="G638" t="n">
-        <v>3177928.177981802</v>
-      </c>
-      <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C639" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D639" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E639" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F639" t="n">
-        <v>86062.80590000001</v>
-      </c>
-      <c r="G639" t="n">
-        <v>3177928.177981802</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C640" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D640" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E640" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F640" t="n">
-        <v>727402.9061</v>
-      </c>
-      <c r="G640" t="n">
-        <v>3905331.084081803</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C641" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D641" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E641" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F641" t="n">
-        <v>332362.8523</v>
-      </c>
-      <c r="G641" t="n">
-        <v>3572968.231781803</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C642" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D642" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E642" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F642" t="n">
-        <v>443609.5575</v>
-      </c>
-      <c r="G642" t="n">
-        <v>4016577.789281803</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C643" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D643" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E643" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F643" t="n">
-        <v>338958.8395</v>
-      </c>
-      <c r="G643" t="n">
-        <v>4016577.789281803</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C644" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D644" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E644" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F644" t="n">
-        <v>156581.5172</v>
-      </c>
-      <c r="G644" t="n">
-        <v>3859996.272081803</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C645" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D645" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E645" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F645" t="n">
-        <v>94976.1385</v>
-      </c>
-      <c r="G645" t="n">
-        <v>3954972.410581802</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C646" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D646" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E646" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F646" t="n">
-        <v>25228.2791</v>
-      </c>
-      <c r="G646" t="n">
-        <v>3980200.689681802</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C647" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D647" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E647" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F647" t="n">
-        <v>332814.3888</v>
-      </c>
-      <c r="G647" t="n">
-        <v>3647386.300881803</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C648" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D648" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E648" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F648" t="n">
-        <v>10959.2964</v>
-      </c>
-      <c r="G648" t="n">
-        <v>3647386.300881803</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C649" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D649" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E649" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F649" t="n">
-        <v>21897.4074</v>
-      </c>
-      <c r="G649" t="n">
-        <v>3647386.300881803</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C650" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D650" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E650" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F650" t="n">
-        <v>181954.8743</v>
-      </c>
-      <c r="G650" t="n">
-        <v>3647386.300881803</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C651" t="n">
-        <v>11</v>
-      </c>
-      <c r="D651" t="n">
-        <v>11</v>
-      </c>
-      <c r="E651" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F651" t="n">
-        <v>525246.437199091</v>
-      </c>
-      <c r="G651" t="n">
-        <v>4172632.738080894</v>
-      </c>
-      <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C652" t="n">
-        <v>11</v>
-      </c>
-      <c r="D652" t="n">
-        <v>11</v>
-      </c>
-      <c r="E652" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F652" t="n">
-        <v>311323.5104</v>
-      </c>
-      <c r="G652" t="n">
-        <v>4172632.738080894</v>
-      </c>
-      <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>11</v>
-      </c>
-      <c r="C653" t="n">
-        <v>11</v>
-      </c>
-      <c r="D653" t="n">
-        <v>11</v>
-      </c>
-      <c r="E653" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F653" t="n">
-        <v>243870.0575</v>
-      </c>
-      <c r="G653" t="n">
-        <v>4172632.738080894</v>
-      </c>
-      <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>11</v>
-      </c>
-      <c r="C654" t="n">
-        <v>11</v>
-      </c>
-      <c r="D654" t="n">
-        <v>11</v>
-      </c>
-      <c r="E654" t="n">
-        <v>11</v>
-      </c>
-      <c r="F654" t="n">
-        <v>84</v>
-      </c>
-      <c r="G654" t="n">
-        <v>4172632.738080894</v>
-      </c>
-      <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F655" t="n">
-        <v>32754.5871</v>
-      </c>
-      <c r="G655" t="n">
-        <v>4139878.150980894</v>
-      </c>
-      <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C656" t="n">
-        <v>11</v>
-      </c>
-      <c r="D656" t="n">
-        <v>11</v>
-      </c>
-      <c r="E656" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F656" t="n">
-        <v>66567.54760000001</v>
-      </c>
-      <c r="G656" t="n">
-        <v>4206445.698580894</v>
-      </c>
-      <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>11</v>
-      </c>
-      <c r="C657" t="n">
-        <v>11</v>
-      </c>
-      <c r="D657" t="n">
-        <v>11</v>
-      </c>
-      <c r="E657" t="n">
-        <v>11</v>
-      </c>
-      <c r="F657" t="n">
-        <v>29211.1363</v>
-      </c>
-      <c r="G657" t="n">
-        <v>4206445.698580894</v>
-      </c>
-      <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>11</v>
-      </c>
-      <c r="C658" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D658" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E658" t="n">
-        <v>11</v>
-      </c>
-      <c r="F658" t="n">
-        <v>240554.1349009091</v>
-      </c>
-      <c r="G658" t="n">
-        <v>4446999.833481803</v>
-      </c>
-      <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C659" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D659" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E659" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F659" t="n">
-        <v>25946.063</v>
-      </c>
-      <c r="G659" t="n">
-        <v>4446999.833481803</v>
-      </c>
-      <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>11</v>
-      </c>
-      <c r="C660" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D660" t="n">
-        <v>11</v>
-      </c>
-      <c r="E660" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F660" t="n">
-        <v>476153.8847</v>
-      </c>
-      <c r="G660" t="n">
-        <v>3970845.948781803</v>
-      </c>
-      <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F661" t="n">
-        <v>319711.7027</v>
-      </c>
-      <c r="G661" t="n">
-        <v>3651134.246081803</v>
-      </c>
-      <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F662" t="n">
-        <v>11</v>
-      </c>
-      <c r="G662" t="n">
-        <v>3651145.246081803</v>
-      </c>
-      <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F663" t="n">
-        <v>538617.5379</v>
-      </c>
-      <c r="G663" t="n">
-        <v>3112527.708181803</v>
-      </c>
-      <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C664" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D664" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E664" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F664" t="n">
-        <v>3639.4814</v>
-      </c>
-      <c r="G664" t="n">
-        <v>3112527.708181803</v>
-      </c>
-      <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C665" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D665" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E665" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F665" t="n">
-        <v>61142.2318</v>
-      </c>
-      <c r="G665" t="n">
-        <v>3051385.476381803</v>
-      </c>
-      <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C666" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D666" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E666" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F666" t="n">
-        <v>153963.7315</v>
-      </c>
-      <c r="G666" t="n">
-        <v>3051385.476381803</v>
-      </c>
-      <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C667" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D667" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E667" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F667" t="n">
-        <v>69504.74340000001</v>
-      </c>
-      <c r="G667" t="n">
-        <v>3120890.219781803</v>
-      </c>
-      <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C668" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D668" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E668" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F668" t="n">
-        <v>154113.0578</v>
-      </c>
-      <c r="G668" t="n">
-        <v>2966777.161981803</v>
-      </c>
-      <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C669" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D669" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E669" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F669" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G669" t="n">
-        <v>2916777.161981803</v>
-      </c>
-      <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C670" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D670" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E670" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F670" t="n">
-        <v>92772.05130000001</v>
-      </c>
-      <c r="G670" t="n">
-        <v>3009549.213281803</v>
-      </c>
-      <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C671" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D671" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E671" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F671" t="n">
-        <v>273519.5926</v>
-      </c>
-      <c r="G671" t="n">
-        <v>2736029.620681803</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C672" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D672" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E672" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F672" t="n">
-        <v>46580.2292</v>
-      </c>
-      <c r="G672" t="n">
-        <v>2782609.849881803</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C673" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D673" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E673" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F673" t="n">
-        <v>81732.0135</v>
-      </c>
-      <c r="G673" t="n">
-        <v>2700877.836381803</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C674" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D674" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E674" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F674" t="n">
-        <v>109053.1603</v>
-      </c>
-      <c r="G674" t="n">
-        <v>2809930.996681803</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C675" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D675" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E675" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F675" t="n">
-        <v>33104.8237</v>
-      </c>
-      <c r="G675" t="n">
-        <v>2776826.172981803</v>
-      </c>
-      <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C676" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D676" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E676" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F676" t="n">
-        <v>132668.2077</v>
-      </c>
-      <c r="G676" t="n">
-        <v>2776826.172981803</v>
-      </c>
-      <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C677" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D677" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E677" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F677" t="n">
-        <v>83252.82399999999</v>
-      </c>
-      <c r="G677" t="n">
-        <v>2776826.172981803</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C678" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D678" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E678" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F678" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="G678" t="n">
-        <v>2776808.372981803</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C679" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="D679" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E679" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F679" t="n">
-        <v>436341.9226</v>
-      </c>
-      <c r="G679" t="n">
-        <v>2340466.450381803</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C680" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D680" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E680" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F680" t="n">
-        <v>22802.1246</v>
-      </c>
-      <c r="G680" t="n">
-        <v>2363268.574981803</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C681" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D681" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E681" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F681" t="n">
-        <v>19415.2016</v>
-      </c>
-      <c r="G681" t="n">
-        <v>2382683.776581803</v>
-      </c>
-      <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C682" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D682" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E682" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F682" t="n">
-        <v>41322.6898</v>
-      </c>
-      <c r="G682" t="n">
-        <v>2382683.776581803</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C683" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="D683" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E683" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F683" t="n">
-        <v>464411.3207</v>
-      </c>
-      <c r="G683" t="n">
-        <v>1918272.455881803</v>
-      </c>
-      <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C684" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D684" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E684" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F684" t="n">
-        <v>16551.7693</v>
-      </c>
-      <c r="G684" t="n">
-        <v>1934824.225181803</v>
-      </c>
-      <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C685" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="D685" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="E685" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F685" t="n">
-        <v>22782.4939</v>
-      </c>
-      <c r="G685" t="n">
-        <v>1912041.731281803</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C686" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D686" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E686" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F686" t="n">
-        <v>373526.0329</v>
-      </c>
-      <c r="G686" t="n">
-        <v>2285567.764181803</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C687" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D687" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E687" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F687" t="n">
-        <v>130046.1682</v>
-      </c>
-      <c r="G687" t="n">
-        <v>2285567.764181803</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C688" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="D688" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="E688" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F688" t="n">
-        <v>369340.729</v>
-      </c>
-      <c r="G688" t="n">
-        <v>1916227.035181803</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C689" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D689" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E689" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F689" t="n">
-        <v>71943.5135</v>
-      </c>
-      <c r="G689" t="n">
-        <v>1988170.548681803</v>
-      </c>
-      <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C690" t="n">
-        <v>11</v>
-      </c>
-      <c r="D690" t="n">
-        <v>11</v>
-      </c>
-      <c r="E690" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F690" t="n">
-        <v>744358.6368</v>
-      </c>
-      <c r="G690" t="n">
-        <v>2732529.185481803</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>11</v>
-      </c>
-      <c r="C691" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="D691" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E691" t="n">
-        <v>11</v>
-      </c>
-      <c r="F691" t="n">
-        <v>2018295.4327</v>
-      </c>
-      <c r="G691" t="n">
-        <v>4750824.618181803</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C692" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D692" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E692" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F692" t="n">
-        <v>1377158.465038596</v>
-      </c>
-      <c r="G692" t="n">
-        <v>3373666.153143208</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C693" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D693" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E693" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F693" t="n">
-        <v>520493.8872</v>
-      </c>
-      <c r="G693" t="n">
-        <v>3894160.040343207</v>
-      </c>
-      <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C694" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D694" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E694" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F694" t="n">
-        <v>2171097.135901379</v>
-      </c>
-      <c r="G694" t="n">
-        <v>6065257.176244587</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C695" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D695" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E695" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F695" t="n">
-        <v>912874.947660024</v>
-      </c>
-      <c r="G695" t="n">
-        <v>6065257.176244587</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C696" t="n">
-        <v>12</v>
-      </c>
-      <c r="D696" t="n">
-        <v>12</v>
-      </c>
-      <c r="E696" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F696" t="n">
-        <v>2120887.0646</v>
-      </c>
-      <c r="G696" t="n">
-        <v>8186144.240844587</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>12</v>
-      </c>
-      <c r="C697" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D697" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E697" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F697" t="n">
-        <v>2378915.0649</v>
-      </c>
-      <c r="G697" t="n">
-        <v>10565059.30574459</v>
-      </c>
-      <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C698" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D698" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E698" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F698" t="n">
-        <v>4775021.005518788</v>
-      </c>
-      <c r="G698" t="n">
-        <v>15340080.31126337</v>
-      </c>
-      <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C699" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D699" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E699" t="n">
-        <v>12</v>
-      </c>
-      <c r="F699" t="n">
-        <v>3915137.408518182</v>
-      </c>
-      <c r="G699" t="n">
-        <v>11424942.90274519</v>
-      </c>
-      <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
+        <v>1.239855967078189</v>
+      </c>
+      <c r="M699" t="n">
+        <v>1.20507399577167</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -25095,7 +25375,7 @@
         <v>11424942.90274519</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25128,7 +25408,7 @@
         <v>9339015.459945193</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25161,7 +25441,7 @@
         <v>9339015.459945193</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25227,7 +25507,7 @@
         <v>9814540.570445191</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25260,7 +25540,7 @@
         <v>8993722.67074519</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25293,7 +25573,7 @@
         <v>9098571.05384519</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25326,7 +25606,7 @@
         <v>9098571.05384519</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25359,7 +25639,7 @@
         <v>8912670.96144519</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25392,7 +25672,7 @@
         <v>7747117.93644519</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25425,7 +25705,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25491,7 +25771,7 @@
         <v>7751120.53004519</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25524,7 +25804,7 @@
         <v>7751158.47704519</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25557,7 +25837,7 @@
         <v>7751158.47704519</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25590,7 +25870,7 @@
         <v>7751409.98964519</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25623,7 +25903,7 @@
         <v>7346595.19034519</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25920,7 +26200,7 @@
         <v>6882053.607245189</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25953,7 +26233,7 @@
         <v>6790607.215245189</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26085,7 +26365,7 @@
         <v>6517933.156045189</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
